--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99003766\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99003766\PycharmProjects\python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,16 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ps no</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>jaya</t>
   </si>
@@ -72,13 +65,229 @@
   </si>
   <si>
     <t>sdd</t>
+  </si>
+  <si>
+    <t>Jasleen Kaur Sethi</t>
+  </si>
+  <si>
+    <t>Himanshu Kumar</t>
+  </si>
+  <si>
+    <t>Abhishek Guria</t>
+  </si>
+  <si>
+    <t>Shivanshu Shukla</t>
+  </si>
+  <si>
+    <t>Aditya Mewara</t>
+  </si>
+  <si>
+    <t>Shaik Akbar Basha</t>
+  </si>
+  <si>
+    <t>Pragada Prem Kumar</t>
+  </si>
+  <si>
+    <t>Jeshwanth Kumar Ega</t>
+  </si>
+  <si>
+    <t>Abhishek Mishra</t>
+  </si>
+  <si>
+    <t>Nitin N Shetty</t>
+  </si>
+  <si>
+    <t>Shrinidhi  V Katti</t>
+  </si>
+  <si>
+    <t>Akshansh Mishra</t>
+  </si>
+  <si>
+    <t>Rohan Roy</t>
+  </si>
+  <si>
+    <t>Yadala Venkata Sravan Kumar</t>
+  </si>
+  <si>
+    <t>Karisma Kiran</t>
+  </si>
+  <si>
+    <t>Rajat Kumar Singh</t>
+  </si>
+  <si>
+    <t>Jayasimha Reddy Ganapuram</t>
+  </si>
+  <si>
+    <t>Undrajavarapu Vijay</t>
+  </si>
+  <si>
+    <t>Ankit  Raj</t>
+  </si>
+  <si>
+    <t>Md. Danish Alam</t>
+  </si>
+  <si>
+    <t>Sayani Basak</t>
+  </si>
+  <si>
+    <t>Kumar Utsav</t>
+  </si>
+  <si>
+    <t>Pawan Kumar</t>
+  </si>
+  <si>
+    <t>Neha  Tabassum</t>
+  </si>
+  <si>
+    <t>G Sai Kiran</t>
+  </si>
+  <si>
+    <t>Aman Shivachh</t>
+  </si>
+  <si>
+    <t>Souvik Jana</t>
+  </si>
+  <si>
+    <t>Sangam Patel</t>
+  </si>
+  <si>
+    <t>Arikatla Pujitha</t>
+  </si>
+  <si>
+    <t>Suvradeep Dutta</t>
+  </si>
+  <si>
+    <t>jasleen.sethi@ltts.com</t>
+  </si>
+  <si>
+    <t>himanshu.kumar@ltts.com</t>
+  </si>
+  <si>
+    <t>abhishek.guria@ltts.com</t>
+  </si>
+  <si>
+    <t>shivanshu.shukla@ltts.com</t>
+  </si>
+  <si>
+    <t>aditya.mewara@ltts.com</t>
+  </si>
+  <si>
+    <t>shaik.basha1@ltts.com</t>
+  </si>
+  <si>
+    <t>pragada.kumar@ltts.com</t>
+  </si>
+  <si>
+    <t>jeshwanth.ega@ltts.com</t>
+  </si>
+  <si>
+    <t>abhishek.mishra1@ltts.com</t>
+  </si>
+  <si>
+    <t>yandapalli.manasa@ltts.com</t>
+  </si>
+  <si>
+    <t>nitin.shetty@ltts.com</t>
+  </si>
+  <si>
+    <t>shrinidhi.katti@ltts.com</t>
+  </si>
+  <si>
+    <t>akshansh.mishra@ltts.com</t>
+  </si>
+  <si>
+    <t>rohan.roy@ltts.com</t>
+  </si>
+  <si>
+    <t>yadala.kumar1@ltts.com</t>
+  </si>
+  <si>
+    <t>karisma.kiran@ltts.com</t>
+  </si>
+  <si>
+    <t>rajat.singh@ltts.com</t>
+  </si>
+  <si>
+    <t>jayasimha.ganapuram@ltts.com</t>
+  </si>
+  <si>
+    <t>undrajavarapu.vijay@ltts.com</t>
+  </si>
+  <si>
+    <t>ankit.raj@ltts.com</t>
+  </si>
+  <si>
+    <t>danish.alam@ltts.com</t>
+  </si>
+  <si>
+    <t>sayani.basak@ltts.com</t>
+  </si>
+  <si>
+    <t>kumar.utsav@ltts.com</t>
+  </si>
+  <si>
+    <t>pawan.kumar1@ltts.com</t>
+  </si>
+  <si>
+    <t>neha.tabassum@ltts.com</t>
+  </si>
+  <si>
+    <t>sai.kiran@ltts.com</t>
+  </si>
+  <si>
+    <t>aman.shivachh@ltts.com</t>
+  </si>
+  <si>
+    <t>souvik.jana@ltts.com</t>
+  </si>
+  <si>
+    <t>sangam.patel@ltts.com</t>
+  </si>
+  <si>
+    <t>arikatla.pujitha@ltts.com</t>
+  </si>
+  <si>
+    <t>suvradeep.dutta@ltts.com</t>
+  </si>
+  <si>
+    <t>PS NUMBER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>ghfg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>dhgh</t>
+  </si>
+  <si>
+    <t>ghgh</t>
+  </si>
+  <si>
+    <t>dhfhd</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +295,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,15 +354,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,110 +719,632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>99003720</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>99003721</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>99003726</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>99003731</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>99003733</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>99003734</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>99003735</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>99003737</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>99003738</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>99003743</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>99003746</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>99003751</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>99003753</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>99003755</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>99003758</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>99003760</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>99003763</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>99003766</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>99003768</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>99003769</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>99003770</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>99003772</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>99003774</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>99003776</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>99003779</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>99003780</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>99003781</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>99003784</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>99003786</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>99003787</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>99003788</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
